--- a/documents/Экономика_Пискарёв.xlsx
+++ b/documents/Экономика_Пискарёв.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F525909D-E361-444C-8527-569727AB3C17}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEEDD41-B776-49BF-826F-8AF405648C85}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -248,24 +248,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -275,6 +257,24 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,7 +615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -628,14 +628,14 @@
       <c r="D3" s="4">
         <v>1596</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="7">
         <f>D3/168</f>
         <v>9.5</v>
       </c>
       <c r="F3" s="4">
         <v>270</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="7">
         <f>E3*F3</f>
         <v>2565</v>
       </c>
@@ -653,14 +653,14 @@
       <c r="D4" s="4">
         <v>1100</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="7">
         <f>D4/168</f>
         <v>6.5476190476190474</v>
       </c>
       <c r="F4" s="4">
         <v>60</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="7">
         <f t="shared" ref="G4:G5" si="0">E4*F4</f>
         <v>392.85714285714283</v>
       </c>
@@ -678,42 +678,42 @@
       <c r="D5" s="4">
         <v>900</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="7">
         <f>D5/168</f>
         <v>5.3571428571428568</v>
       </c>
       <c r="F5" s="4">
         <v>70</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="14">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="8">
         <f>SUM(G3:G5)*0.75</f>
         <v>2499.6428571428569</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="14">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="8">
         <f>SUM(G3:G6)</f>
         <v>5832.5</v>
       </c>
@@ -723,7 +723,7 @@
         <v>25</v>
       </c>
       <c r="G10">
-        <v>3400</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -738,16 +738,16 @@
       <c r="E12" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="9">
         <f>G10*G11*20/120</f>
-        <v>14166.666666666666</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="9">
         <f>G7*0.17</f>
         <v>991.52500000000009</v>
       </c>
@@ -756,19 +756,19 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
-        <f>(G7+B13)*0.35</f>
-        <v>2388.4087499999996</v>
+      <c r="B15" s="9">
+        <f>(G7+B13)*0.346</f>
+        <v>2361.1126499999996</v>
       </c>
       <c r="E15" t="s">
         <v>28</v>
       </c>
       <c r="F15">
         <f>G10*G11-G12-B25</f>
-        <v>53747.024583333332</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20440.987349999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -781,61 +781,69 @@
       </c>
       <c r="F17">
         <f>F15/B25*100</f>
-        <v>314.56194178472475</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
+        <v>119.8251491419112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="126.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H20">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="126.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="8">
         <f>G7</f>
         <v>5832.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="8">
         <f>B13</f>
         <v>991.52500000000009</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="108.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="108.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="8">
         <f>B15</f>
-        <v>2388.4087499999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2361.1126499999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="8">
         <f>B17</f>
         <v>7873.8750000000009</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="108.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="108.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="8">
         <f>SUM(B21:B24)</f>
-        <v>17086.30875</v>
+        <v>17059.012650000001</v>
       </c>
     </row>
   </sheetData>
